--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0017-004 - validasi Penambahan Status Flagging Nasabah.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0017-004 - validasi Penambahan Status Flagging Nasabah.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21751DD-CAD8-4371-8FFE-481296115829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BF8FC1-6940-48E3-AE38-60F1AB6F2ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="3645" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SCD0274" sheetId="2" r:id="rId1"/>
+    <sheet name="SCD0017" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -125,9 +125,6 @@
     <t>EXPL_QUERY3</t>
   </si>
   <si>
-    <t>DGS-289</t>
-  </si>
-  <si>
     <t>validasi Penambahan Status Flagging Nasabah</t>
   </si>
   <si>
@@ -146,6 +143,9 @@
   </si>
   <si>
     <t>Melihat Status Flagging Nasabah</t>
+  </si>
+  <si>
+    <t>SCD0017-004</t>
   </si>
 </sst>
 </file>
@@ -554,15 +554,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EAF5E5-8229-45B3-AC11-8AED029F52F4}">
   <dimension ref="A1:AB7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="56.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -680,16 +680,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
@@ -701,12 +701,12 @@
       <c r="R2" s="9"/>
       <c r="S2" s="9"/>
       <c r="T2" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
       <c r="W2" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X2" s="10"/>
       <c r="Y2" s="10"/>
